--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2408321.271397858</v>
+        <v>2410081.801700644</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9363272.594773939</v>
+        <v>9363272.594773937</v>
       </c>
     </row>
     <row r="11">
@@ -709,22 +709,22 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,20 +816,20 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="E4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.44627538834367</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -901,59 +901,59 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="F5" t="n">
+      <c r="S5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="G5" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>11.85612676368803</v>
       </c>
     </row>
     <row r="6">
@@ -977,52 +977,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>33.89412103271894</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="F6" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="E7" t="n">
-        <v>18.96187038700693</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3318063516151</v>
+        <v>81.54548989577252</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>81.54548989577268</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335005</v>
+        <v>52.26183589335021</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>175.3318063516151</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516149</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>36.09584543112422</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>57.55981668760842</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>13.90176726927711</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.7973442634881</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>161.4362293574044</v>
+        <v>175.3318063516149</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>18.16423677622432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>220.8531394779</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812055</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>31.26260713376613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>20.92847288552898</v>
+        <v>85.08368458989425</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.91555826189102</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4333,13 +4333,13 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M2" t="n">
-        <v>36.31570634713221</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N2" t="n">
         <v>68.55862319738975</v>
@@ -4357,19 +4357,19 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="U2" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="V2" t="n">
-        <v>67.19417015045701</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="W2" t="n">
-        <v>67.19417015045701</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X2" t="n">
         <v>32.91143027777485</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D3" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E3" t="n">
-        <v>67.19417015045701</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="F3" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G3" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>40.20652398783096</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="M3" t="n">
+        <v>36.31570634713221</v>
+      </c>
+      <c r="N3" t="n">
         <v>68.55862319738975</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>102.1591365466055</v>
       </c>
-      <c r="N3" t="n">
-        <v>135.7596498958213</v>
-      </c>
-      <c r="O3" t="n">
-        <v>135.7596498958213</v>
-      </c>
       <c r="P3" t="n">
-        <v>135.7596498958213</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
@@ -4442,19 +4442,19 @@
         <v>101.4769100231392</v>
       </c>
       <c r="U3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C4" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D4" t="n">
-        <v>32.91143027777485</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E4" t="n">
-        <v>20.33943493601357</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="F4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.9242553711123</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="C5" t="n">
-        <v>153.9242553711123</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="D5" t="n">
-        <v>119.687769479477</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="E5" t="n">
-        <v>80.81800802212544</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="F5" t="n">
-        <v>41.94824656477385</v>
+        <v>18.39358462996717</v>
       </c>
       <c r="G5" t="n">
         <v>3.078485107422247</v>
@@ -4570,16 +4570,16 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>3.078485107422247</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M5" t="n">
-        <v>41.17473831177255</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="N5" t="n">
-        <v>77.73174896241173</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="O5" t="n">
         <v>115.828002166762</v>
@@ -4591,28 +4591,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T5" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U5" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="V5" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="W5" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X5" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y5" t="n">
-        <v>153.9242553711123</v>
+        <v>25.33908537917064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C6" t="n">
-        <v>119.687769479477</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D6" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F6" t="n">
         <v>3.078485107422247</v>
@@ -4646,52 +4646,52 @@
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>3.078485107422247</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="K6" t="n">
-        <v>41.17473831177255</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="L6" t="n">
-        <v>41.17473831177255</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="M6" t="n">
-        <v>41.17473831177255</v>
+        <v>9.385105424419159</v>
       </c>
       <c r="N6" t="n">
-        <v>79.27099151612285</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="O6" t="n">
-        <v>115.828002166762</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="P6" t="n">
-        <v>153.9242553711123</v>
+        <v>123.6738650374701</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0544939137607</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="C7" t="n">
-        <v>76.18473245640914</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="D7" t="n">
-        <v>37.31497099905754</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="E7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="F7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4746,31 +4746,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>153.9242553711123</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="U7" t="n">
-        <v>153.9242553711123</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="V7" t="n">
-        <v>153.9242553711123</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="W7" t="n">
-        <v>153.9242553711123</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="X7" t="n">
-        <v>153.9242553711123</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.9242553711123</v>
+        <v>57.03132802508901</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.2289880850508</v>
+        <v>211.96264107075</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2289880850508</v>
+        <v>211.96264107075</v>
       </c>
       <c r="D8" t="n">
-        <v>34.85980637214912</v>
+        <v>211.96264107075</v>
       </c>
       <c r="E8" t="n">
-        <v>34.85980637214912</v>
+        <v>34.85980637214911</v>
       </c>
       <c r="F8" t="n">
-        <v>27.91430562294565</v>
+        <v>27.91430562294564</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837335</v>
+        <v>132.7593507837333</v>
       </c>
       <c r="K8" t="n">
-        <v>280.7066616499003</v>
+        <v>132.7593507837333</v>
       </c>
       <c r="L8" t="n">
-        <v>454.2851499379992</v>
+        <v>142.1083187088428</v>
       </c>
       <c r="M8" t="n">
-        <v>496.3571155520543</v>
+        <v>184.1802843228975</v>
       </c>
       <c r="N8" t="n">
-        <v>669.9356038401532</v>
+        <v>231.5468267043064</v>
       </c>
       <c r="O8" t="n">
-        <v>701.3272254064602</v>
+        <v>371.518764483786</v>
       </c>
       <c r="P8" t="n">
-        <v>701.3272254064602</v>
+        <v>545.0972527718847</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808541</v>
+        <v>648.5374921808533</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808541</v>
+        <v>648.5374921808533</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808541</v>
+        <v>471.4346574822524</v>
       </c>
       <c r="U8" t="n">
-        <v>648.5374921808541</v>
+        <v>471.4346574822524</v>
       </c>
       <c r="V8" t="n">
-        <v>471.434657482253</v>
+        <v>471.4346574822524</v>
       </c>
       <c r="W8" t="n">
-        <v>471.434657482253</v>
+        <v>471.4346574822524</v>
       </c>
       <c r="X8" t="n">
-        <v>471.434657482253</v>
+        <v>471.4346574822524</v>
       </c>
       <c r="Y8" t="n">
-        <v>294.3318227836519</v>
+        <v>294.3318227836515</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>701.3272254064602</v>
+        <v>533.1118883863915</v>
       </c>
       <c r="C9" t="n">
-        <v>526.8741961253332</v>
+        <v>358.6588591052645</v>
       </c>
       <c r="D9" t="n">
-        <v>377.939786464082</v>
+        <v>209.7244494440132</v>
       </c>
       <c r="E9" t="n">
-        <v>218.7023314586265</v>
+        <v>50.4869944385577</v>
       </c>
       <c r="F9" t="n">
-        <v>72.16777348551145</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="G9" t="n">
-        <v>72.16777348551145</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="H9" t="n">
-        <v>72.16777348551145</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="K9" t="n">
-        <v>123.1014041297202</v>
+        <v>106.0949334332364</v>
       </c>
       <c r="L9" t="n">
-        <v>296.6798924178191</v>
+        <v>147.6372669611595</v>
       </c>
       <c r="M9" t="n">
-        <v>364.5147043918865</v>
+        <v>215.4720789352266</v>
       </c>
       <c r="N9" t="n">
-        <v>448.5535469058721</v>
+        <v>299.5109214492119</v>
       </c>
       <c r="O9" t="n">
-        <v>503.2128742869226</v>
+        <v>354.1702488302622</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183613</v>
+        <v>527.7487371183609</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="S9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="T9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="U9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="V9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="W9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="X9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.0793668483718</v>
+        <v>347.1215560092578</v>
       </c>
       <c r="C10" t="n">
-        <v>164.1431839204649</v>
+        <v>178.1853730813509</v>
       </c>
       <c r="D10" t="n">
-        <v>14.02654450812921</v>
+        <v>28.06873366901516</v>
       </c>
       <c r="E10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="F10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812921</v>
+        <v>14.02654450812919</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288422</v>
+        <v>72.14931057288408</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707605</v>
+        <v>202.0528747707603</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882355</v>
+        <v>349.4070924882352</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831129</v>
+        <v>498.6921726831125</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189942</v>
+        <v>620.5648112189937</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064602</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="R10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="S10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="T10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="U10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="V10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="W10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="X10" t="n">
-        <v>673.2490998877854</v>
+        <v>701.3272254064595</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.1822015469729</v>
+        <v>524.2243907078587</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,10 +5369,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,25 +6001,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6320,7 +6320,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6624,28 +6624,28 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,31 +6718,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7031,7 +7031,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128888</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7742,7 +7742,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>240.8900576307836</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093878</v>
+        <v>255.1065912093877</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>245.4737854454458</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>156.4449627930514</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>163.5316528316735</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>152.4073738031007</v>
+        <v>151.0360642081934</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>244.1059827132785</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>241.2180059126716</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>244.8579146936526</v>
+        <v>243.3031242353586</v>
       </c>
       <c r="P5" t="n">
         <v>249.4684271639326</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1585617237782</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
@@ -8309,13 +8309,13 @@
         <v>150.2310236677773</v>
       </c>
       <c r="O6" t="n">
-        <v>161.599892072038</v>
+        <v>163.154682530332</v>
       </c>
       <c r="P6" t="n">
         <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>160.922075125819</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>171.8755219815074</v>
+        <v>22.43379383386446</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070597</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>127.4868140471612</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>109.6770870840131</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588833413</v>
+        <v>183.1186529404486</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.50693749366712</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576879</v>
+        <v>48.28995823576891</v>
       </c>
       <c r="K9" t="n">
-        <v>113.7675886177934</v>
+        <v>96.5893353890221</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3698532931066</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>150.548106521879</v>
       </c>
       <c r="Q9" t="n">
         <v>209.1879900744755</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.103562085036398e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.940996767551754e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-5.303916359032731e-14</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-5.91971315289126e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>268.0202376130198</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.33133491134416</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648107</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1584408891651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>43.26526345294944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5054897610402</v>
+        <v>61.35027805667492</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794287.2622779037</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597551</v>
@@ -26349,13 +26349,13 @@
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003666</v>
+        <v>343539.4026003661</v>
       </c>
       <c r="E3" t="n">
         <v>1086298.016192725</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335607</v>
+        <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491112</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230411</v>
+        <v>34635.69127230413</v>
       </c>
       <c r="M3" t="n">
         <v>248550.2087575369</v>
@@ -26423,7 +26423,7 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712355</v>
+        <v>305665.7657712357</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26432,34 +26432,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731918</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731948</v>
+        <v>8117.312426732006</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685963</v>
+        <v>52713.93566685961</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166303.6599059699</v>
+        <v>166303.65990597</v>
       </c>
       <c r="C6" t="n">
         <v>190117.7903650797</v>
       </c>
       <c r="D6" t="n">
-        <v>-65611.73239364174</v>
+        <v>-65611.73239364155</v>
       </c>
       <c r="E6" t="n">
-        <v>-570346.622937966</v>
+        <v>-570033.9816090447</v>
       </c>
       <c r="F6" t="n">
-        <v>515951.3932547586</v>
+        <v>516264.0345836803</v>
       </c>
       <c r="G6" t="n">
-        <v>515951.393254759</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="H6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.03458368</v>
       </c>
       <c r="I6" t="n">
-        <v>515951.3932547591</v>
+        <v>516264.0345836802</v>
       </c>
       <c r="J6" t="n">
-        <v>507071.2187954232</v>
+        <v>507383.8601243445</v>
       </c>
       <c r="K6" t="n">
-        <v>514782.646209268</v>
+        <v>515095.287538189</v>
       </c>
       <c r="L6" t="n">
-        <v>481315.7019824549</v>
+        <v>481628.3433113761</v>
       </c>
       <c r="M6" t="n">
-        <v>267401.1844972218</v>
+        <v>267713.8258261431</v>
       </c>
       <c r="N6" t="n">
-        <v>515951.3932547592</v>
+        <v>516264.03458368</v>
       </c>
       <c r="O6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836802</v>
       </c>
       <c r="P6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.03458368</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523595</v>
+        <v>386.5211853523589</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332342</v>
+        <v>351.4999246332336</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893145</v>
+        <v>981.4543149893148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.850742508837</v>
+        <v>136.8507425088368</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480334</v>
+        <v>997.3764817480335</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395547</v>
+        <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
         <v>4.541151368822511</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088372</v>
+        <v>136.8507425088373</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480334</v>
+        <v>997.3764817480333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.850742508837</v>
+        <v>136.8507425088368</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480334</v>
+        <v>997.3764817480335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>293.8123459961796</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>335.7911882045137</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>117.5507906575789</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>123.7051679814456</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1292999194285</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>81.86309887022614</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>53.75242741433431</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.892067707982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>133.3069086246725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>118.7211981111525</v>
       </c>
       <c r="E4" t="n">
-        <v>133.9876872582255</v>
+        <v>112.4940501726138</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4811355489759</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27563,7 +27563,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>320.788920587964</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.4493062294837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>368.3949818989333</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>212.8533259460332</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>374.3818118923655</v>
       </c>
     </row>
     <row r="6">
@@ -27697,16 +27697,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>138.8143779555968</v>
+        <v>134.2274351455376</v>
       </c>
       <c r="D6" t="n">
-        <v>108.9640017218607</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>119.1640166126229</v>
       </c>
       <c r="F6" t="n">
-        <v>106.5881485506058</v>
+        <v>111.1750913606649</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>56.99978005760148</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.3509163391592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>128.7657572558497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.1344091754343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.4720922595622</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27827,10 +27827,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>208.7138830980289</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>247.8345207995437</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.4020353118655</v>
+        <v>301.1883517677081</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>273.1375517249103</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>206.5985637206469</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933332</v>
+        <v>150.5709327933333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>173.6116212999463</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2938536289356</v>
+        <v>40.96204727732069</v>
       </c>
       <c r="U8" t="n">
         <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>152.4204521185198</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>210.9061323044385</v>
+        <v>210.9061323044387</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>108.9733669622597</v>
       </c>
       <c r="G9" t="n">
         <v>136.5121319720754</v>
@@ -27952,7 +27952,7 @@
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>3.212369890070597</v>
+        <v>60.77218657767906</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671857</v>
+        <v>48.53902377671865</v>
       </c>
       <c r="S9" t="n">
         <v>156.240555821128</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.50017383032224</v>
+        <v>4.50017383032241</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>132.5321953772921</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.4896211379861</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068426</v>
+        <v>44.08089719068433</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.79734426348818</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992552</v>
+        <v>145.9534932992553</v>
       </c>
       <c r="S10" t="n">
         <v>211.8696945563088</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.14842399469043</v>
+        <v>43.2528470004799</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466771</v>
+        <v>1.553854011466768</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493407</v>
+        <v>15.91340739493405</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707273</v>
+        <v>59.90495677707265</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057279</v>
+        <v>131.8814169057277</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111164</v>
+        <v>197.6560572111161</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145426</v>
+        <v>245.2098169145423</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909648</v>
+        <v>272.8431681909644</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010448</v>
+        <v>277.2580559010444</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745221</v>
+        <v>261.8069200745217</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664361</v>
+        <v>223.4461491664358</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807824</v>
+        <v>167.7987523807821</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779963</v>
+        <v>97.60728204779947</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629908</v>
+        <v>35.40844828629902</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195793</v>
+        <v>6.801995935195782</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173416</v>
+        <v>0.1243083209173415</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352639</v>
+        <v>0.8313851911352627</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753734</v>
+        <v>8.029430661753722</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373606</v>
+        <v>28.62444627373602</v>
       </c>
       <c r="J9" t="n">
-        <v>78.5476684308979</v>
+        <v>78.54766843089779</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369606</v>
+        <v>134.2504762369604</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383827</v>
+        <v>180.5163328383824</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170359</v>
+        <v>210.6540460170356</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944299</v>
+        <v>216.2294317944296</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434853</v>
+        <v>197.8076862434851</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440663</v>
+        <v>158.7581072440661</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631611</v>
+        <v>106.1255903631609</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592456</v>
+        <v>51.61881037592448</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270983</v>
+        <v>15.4426152827098</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479418</v>
+        <v>3.351065748479413</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0546963941536358</v>
+        <v>0.05469639415363572</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091728</v>
+        <v>0.6970054162091718</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791387014</v>
+        <v>6.197011791387005</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927222</v>
+        <v>20.96085378927219</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598851</v>
+        <v>49.27828292598844</v>
       </c>
       <c r="K10" t="n">
-        <v>80.9793565377566</v>
+        <v>80.97935653775649</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516801</v>
+        <v>103.62569615168</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972251</v>
+        <v>109.258767197225</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186274</v>
+        <v>106.6608379186272</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472929</v>
+        <v>98.51854737472915</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406211</v>
+        <v>84.29963688406198</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820629</v>
+        <v>58.3646989882062</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791425</v>
+        <v>31.33989807791421</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066349</v>
+        <v>12.14690348066347</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075556</v>
+        <v>2.978114051075551</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777311</v>
+        <v>0.03801847724777305</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="L2" t="n">
         <v>33.93991247395533</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>28.63848405005938</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="O3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>36.92627338448402</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>38.48106384277808</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="P5" t="n">
         <v>38.48106384277808</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="O6" t="n">
-        <v>36.92627338448403</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511154</v>
+        <v>119.9321275511152</v>
       </c>
       <c r="K8" t="n">
-        <v>149.4417281476433</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>175.3318063516151</v>
+        <v>9.443401944555035</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496369204</v>
+        <v>42.49693496369164</v>
       </c>
       <c r="N8" t="n">
-        <v>175.3318063516151</v>
+        <v>47.84499230445346</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283533</v>
+        <v>141.385795736848</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>157.8080531662373</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>110.1766258803949</v>
+        <v>92.99837265162347</v>
       </c>
       <c r="L9" t="n">
-        <v>175.3318063516151</v>
+        <v>41.96195305850819</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501759</v>
+        <v>68.52001209501728</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109659</v>
+        <v>84.88771971109625</v>
       </c>
       <c r="O9" t="n">
-        <v>55.2114417990409</v>
+        <v>55.21144179904061</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973607</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516151</v>
+        <v>175.3318063516149</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187375</v>
+        <v>58.70986471187364</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119963</v>
+        <v>131.2157214119961</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590657</v>
+        <v>148.8426441590656</v>
       </c>
       <c r="N10" t="n">
-        <v>150.793010297856</v>
+        <v>150.7930102978558</v>
       </c>
       <c r="O10" t="n">
-        <v>123.103675288769</v>
+        <v>123.1036752887688</v>
       </c>
       <c r="P10" t="n">
-        <v>81.5781961489556</v>
+        <v>81.57819614895547</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>57.65947400496659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
